--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -1,90 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27211"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a09239/Documents/workspace/Erection/Erection/data/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <bookViews>
-    <workbookView xWindow="240" yWindow="680" windowWidth="28560" windowHeight="17380" tabRatio="500" activeTab="2"/>
-  </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
     <sheet name="log" sheetId="2" r:id="rId2"/>
     <sheet name="total" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="13">
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>seed</t>
-  </si>
-  <si>
-    <t>rate</t>
-  </si>
-  <si>
-    <t>balance</t>
-  </si>
-  <si>
-    <t>profit</t>
-  </si>
-  <si>
-    <t>김규범</t>
-  </si>
-  <si>
-    <t>김정수</t>
-  </si>
-  <si>
-    <t>박성수</t>
-  </si>
-  <si>
-    <t>수수료</t>
-  </si>
-  <si>
-    <t>total</t>
-  </si>
-  <si>
-    <t>index</t>
-  </si>
-  <si>
-    <t>totalProfit</t>
-  </si>
-  <si>
-    <t>difference</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
+  <numFmts count="1">
+    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
+  </numFmts>
+  <fonts count="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -113,15 +48,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="기본" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -446,142 +376,135 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>5</v>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>name</v>
+      </c>
+      <c r="B1" t="str">
+        <v>seed</v>
+      </c>
+      <c r="C1" t="str">
+        <v>rate</v>
+      </c>
+      <c r="D1" t="str">
+        <v>balance</v>
+      </c>
+      <c r="E1" t="str">
+        <v>profit</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>김규범</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C2">
         <f>IFERROR(B2/SUM(B2:B4)+(B3/SUM(B2:B4)-0.5*B3*(2-B6)/SUM(B2:B4))*B2/SUM(B2,B4),0)</f>
-        <v>0</v>
+        <v>0.35416666666666663</v>
       </c>
       <c r="D2">
         <f>ROUNDDOWN(B7*C2,0)</f>
-        <v>0</v>
+        <v>106</v>
       </c>
       <c r="E2">
         <f>IFERROR(D2-B2, 0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
         <v>6</v>
       </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>김정수</v>
+      </c>
       <c r="B3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C3">
         <f>IFERROR(0.5*B3*(2-B6)/SUM(B2:B4),0)</f>
-        <v>0</v>
+        <v>0.2916666666666667</v>
       </c>
       <c r="D3">
         <f>TRUNC(B7*C3,0)</f>
-        <v>0</v>
+        <v>87</v>
       </c>
       <c r="E3">
         <f>IFERROR(D3-B3, 0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>7</v>
+        <v>-13</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>박성수</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C4">
         <f>IFERROR(B4/SUM(B2:B4)+(B3/SUM(B2:B4)-0.5*B3*(2-B6)/SUM(B2:B4))*B4/SUM(B2,B4),0)</f>
-        <v>0</v>
+        <v>0.35416666666666663</v>
       </c>
       <c r="D4">
         <f>TRUNC(B7*C4,0)</f>
-        <v>0</v>
+        <v>106</v>
       </c>
       <c r="E4">
         <f>IFERROR(D4-B4, 0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>8</v>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>수수료</v>
       </c>
       <c r="B6">
         <v>0.25</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>9</v>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>total</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>300</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:E1 A4:E5 A2 C2:E2 A3 C3:E3 A7 C7:E7 A6 C6:E6" numberStoredAsText="1"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:E7"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:D4"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1">
+      <c r="A1" t="str">
+        <v>index</v>
+      </c>
+      <c r="B1" t="str">
+        <v>김규범</v>
+      </c>
+      <c r="C1" t="str">
+        <v>김정수</v>
+      </c>
+      <c r="D1" t="str">
+        <v>박성수</v>
+      </c>
+    </row>
+    <row r="2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -595,34 +518,46 @@
         <v>0</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>100</v>
+      </c>
+      <c r="C3">
+        <v>100</v>
+      </c>
+      <c r="D3">
+        <v>100</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:D2" numberStoredAsText="1"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D3"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>5</v>
+    <row r="1">
+      <c r="B1" t="str">
+        <v>totalProfit</v>
+      </c>
+      <c r="C1" t="str">
+        <v>difference</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>김규범</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -631,9 +566,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>6</v>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>김정수</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -642,9 +577,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>7</v>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>박성수</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -654,10 +589,9 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:C4" numberStoredAsText="1"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C4"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -1,26 +1,98 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27211"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a09239/Documents/workspace/Erection/Erection/data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <bookViews>
+    <workbookView xWindow="42740" yWindow="3800" windowWidth="19820" windowHeight="14580" activeTab="2"/>
+  </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
     <sheet name="log" sheetId="2" r:id="rId2"/>
     <sheet name="total" sheetId="3" r:id="rId3"/>
   </sheets>
+  <calcPr calcId="150001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
+  <si>
+    <t>seed</t>
+  </si>
+  <si>
+    <t>rate</t>
+  </si>
+  <si>
+    <t>balance</t>
+  </si>
+  <si>
+    <t>profit</t>
+  </si>
+  <si>
+    <t>김규범</t>
+  </si>
+  <si>
+    <t>김정수</t>
+  </si>
+  <si>
+    <t>박성수</t>
+  </si>
+  <si>
+    <t>수수료</t>
+  </si>
+  <si>
+    <t>total</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>totalProfit</t>
+  </si>
+  <si>
+    <t>difference</t>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>totalSeed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="1">
-    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
-  </numFmts>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -48,10 +120,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="기본" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -376,135 +453,142 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
   </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>name</v>
-      </c>
-      <c r="B1" t="str">
-        <v>seed</v>
-      </c>
-      <c r="C1" t="str">
-        <v>rate</v>
-      </c>
-      <c r="D1" t="str">
-        <v>balance</v>
-      </c>
-      <c r="E1" t="str">
-        <v>profit</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>김규범</v>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>4</v>
       </c>
       <c r="B2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="C2">
         <f>IFERROR(B2/SUM(B2:B4)+(B3/SUM(B2:B4)-0.5*B3*(2-B6)/SUM(B2:B4))*B2/SUM(B2,B4),0)</f>
-        <v>0.35416666666666663</v>
+        <v>0</v>
       </c>
       <c r="D2">
         <f>ROUNDDOWN(B7*C2,0)</f>
-        <v>106</v>
+        <v>0</v>
       </c>
       <c r="E2">
         <f>IFERROR(D2-B2, 0)</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>김정수</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>5</v>
       </c>
       <c r="B3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="C3">
         <f>IFERROR(0.5*B3*(2-B6)/SUM(B2:B4),0)</f>
-        <v>0.2916666666666667</v>
+        <v>0</v>
       </c>
       <c r="D3">
         <f>TRUNC(B7*C3,0)</f>
-        <v>87</v>
+        <v>0</v>
       </c>
       <c r="E3">
         <f>IFERROR(D3-B3, 0)</f>
-        <v>-13</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>박성수</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>6</v>
       </c>
       <c r="B4">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="C4">
         <f>IFERROR(B4/SUM(B2:B4)+(B3/SUM(B2:B4)-0.5*B3*(2-B6)/SUM(B2:B4))*B4/SUM(B2,B4),0)</f>
-        <v>0.35416666666666663</v>
+        <v>0</v>
       </c>
       <c r="D4">
         <f>TRUNC(B7*C4,0)</f>
-        <v>106</v>
+        <v>0</v>
       </c>
       <c r="E4">
         <f>IFERROR(D4-B4, 0)</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v>수수료</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>7</v>
       </c>
       <c r="B6">
         <v>0.25</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="str">
-        <v>total</v>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>300</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E7"/>
+    <ignoredError sqref="A2:E5 B1:E1 A7:E7 A6 C6:E6" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="A3:D7"/>
+    </sheetView>
   </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>index</v>
-      </c>
-      <c r="B1" t="str">
-        <v>김규범</v>
-      </c>
-      <c r="C1" t="str">
-        <v>김정수</v>
-      </c>
-      <c r="D1" t="str">
-        <v>박성수</v>
-      </c>
-    </row>
-    <row r="2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -518,46 +602,39 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>100</v>
-      </c>
-      <c r="C3">
-        <v>100</v>
-      </c>
-      <c r="D3">
-        <v>100</v>
-      </c>
-    </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D3"/>
+    <ignoredError sqref="A1:D2" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
   </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="B1" t="str">
-        <v>totalProfit</v>
-      </c>
-      <c r="C1" t="str">
-        <v>difference</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>김규범</v>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>4</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -565,10 +642,13 @@
       <c r="C2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>김정수</v>
+      <c r="D2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>5</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -576,10 +656,13 @@
       <c r="C3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>박성수</v>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>6</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -587,11 +670,15 @@
       <c r="C4">
         <v>0</v>
       </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C4"/>
+    <ignoredError sqref="A1 A4 A2 A3" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -1,36 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27211"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a09239/Documents/workspace/Erection/Erection/data/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="42740" yWindow="3800" windowWidth="19820" windowHeight="14580" activeTab="2"/>
+    <workbookView xWindow="510" yWindow="525" windowWidth="11535" windowHeight="4950"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
     <sheet name="log" sheetId="2" r:id="rId2"/>
     <sheet name="total" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
   <si>
+    <t>name</t>
+  </si>
+  <si>
     <t>seed</t>
   </si>
   <si>
@@ -61,18 +51,13 @@
     <t>index</t>
   </si>
   <si>
+    <t>totalSeed</t>
+  </si>
+  <si>
     <t>totalProfit</t>
   </si>
   <si>
     <t>difference</t>
-  </si>
-  <si>
-    <t>name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>totalSeed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -85,7 +70,6 @@
       <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
-      <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -120,7 +104,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="기본" xfId="0" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -456,38 +440,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
       <c r="C2">
-        <f>IFERROR(B2/SUM(B2:B4)+(B3/SUM(B2:B4)-0.5*B3*(2-B6)/SUM(B2:B4))*B2/SUM(B2,B4),0)</f>
+        <f>IFERROR(B2/SUM($B$2:$B$4),0)</f>
         <v>0</v>
       </c>
       <c r="D2">
@@ -499,15 +483,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
       <c r="C3">
-        <f>IFERROR(0.5*B3*(2-B6)/SUM(B2:B4),0)</f>
+        <f>IFERROR(B3/SUM($B$2:$B$4),0)</f>
         <v>0</v>
       </c>
       <c r="D3">
@@ -519,15 +503,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4">
         <v>0</v>
       </c>
       <c r="C4">
-        <f>IFERROR(B4/SUM(B2:B4)+(B3/SUM(B2:B4)-0.5*B3*(2-B6)/SUM(B2:B4))*B4/SUM(B2,B4),0)</f>
+        <f>IFERROR(B4/SUM($B$2:$B$4),0)</f>
         <v>0</v>
       </c>
       <c r="D4">
@@ -539,17 +523,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B6">
         <v>0.25</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -559,36 +543,36 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A2:E5 B1:E1 A7:E7 A6 C6:E6" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:E7" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="A3:D7"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -602,11 +586,13 @@
         <v>0</v>
       </c>
     </row>
+    <row r="5" spans="1:4" ht="17.25" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:4" ht="17.25" x14ac:dyDescent="0.3"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:D2" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:D2 A4:D4 B3:D3" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -615,26 +601,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" t="s">
         <v>13</v>
       </c>
-      <c r="C1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -646,9 +632,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -660,9 +646,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -677,8 +663,9 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="A1 A4 A2 A3" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:E1 A4 A2 A3" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -1,82 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <bookViews>
-    <workbookView xWindow="510" yWindow="525" windowWidth="11535" windowHeight="4950"/>
-  </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
     <sheet name="log" sheetId="2" r:id="rId2"/>
     <sheet name="total" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>seed</t>
-  </si>
-  <si>
-    <t>rate</t>
-  </si>
-  <si>
-    <t>balance</t>
-  </si>
-  <si>
-    <t>profit</t>
-  </si>
-  <si>
-    <t>김규범</t>
-  </si>
-  <si>
-    <t>김정수</t>
-  </si>
-  <si>
-    <t>박성수</t>
-  </si>
-  <si>
-    <t>수수료</t>
-  </si>
-  <si>
-    <t>total</t>
-  </si>
-  <si>
-    <t>index</t>
-  </si>
-  <si>
-    <t>totalSeed</t>
-  </si>
-  <si>
-    <t>totalProfit</t>
-  </si>
-  <si>
-    <t>difference</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
+  <numFmts count="1">
+    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
+  </numFmts>
+  <fonts count="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -104,15 +48,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -437,142 +376,135 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>5</v>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>name</v>
+      </c>
+      <c r="B1" t="str">
+        <v>seed</v>
+      </c>
+      <c r="C1" t="str">
+        <v>rate</v>
+      </c>
+      <c r="D1" t="str">
+        <v>balance</v>
+      </c>
+      <c r="E1" t="str">
+        <v>profit</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>김규범</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C2">
         <f>IFERROR(B2/SUM($B$2:$B$4),0)</f>
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="D2">
         <f>ROUNDDOWN(B7*C2,0)</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2">
         <f>IFERROR(D2-B2, 0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>6</v>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>김정수</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C3">
         <f>IFERROR(B3/SUM($B$2:$B$4),0)</f>
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="D3">
         <f>TRUNC(B7*C3,0)</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E3">
         <f>IFERROR(D3-B3, 0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>7</v>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>박성수</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C4">
         <f>IFERROR(B4/SUM($B$2:$B$4),0)</f>
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="D4">
         <f>TRUNC(B7*C4,0)</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E4">
         <f>IFERROR(D4-B4, 0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>8</v>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>수수료</v>
       </c>
       <c r="B6">
         <v>0.25</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>9</v>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>total</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>300</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:E7" numberStoredAsText="1"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:E7"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="1">
+      <c r="A1" t="str">
+        <v>index</v>
+      </c>
+      <c r="B1" t="str">
+        <v>김규범</v>
+      </c>
+      <c r="C1" t="str">
+        <v>김정수</v>
+      </c>
+      <c r="D1" t="str">
+        <v>박성수</v>
+      </c>
+    </row>
+    <row r="2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -586,44 +518,52 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="17.25" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:4" ht="17.25" x14ac:dyDescent="0.3"/>
+    <row r="7">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>100</v>
+      </c>
+      <c r="C7">
+        <v>100</v>
+      </c>
+      <c r="D7">
+        <v>100</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:D2 A4:D4 B3:D3" numberStoredAsText="1"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D7"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D4"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>5</v>
+    <row r="1">
+      <c r="B1" t="str">
+        <v>totalSeed</v>
+      </c>
+      <c r="C1" t="str">
+        <v>totalProfit</v>
+      </c>
+      <c r="D1" t="str">
+        <v>difference</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>김규범</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -632,12 +572,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>6</v>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>김정수</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -646,12 +586,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>7</v>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>박성수</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -661,11 +601,9 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:E1 A4 A2 A3" numberStoredAsText="1"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D4"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -1,26 +1,82 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <bookViews>
+    <workbookView xWindow="510" yWindow="525" windowWidth="11535" windowHeight="4950"/>
+  </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
     <sheet name="log" sheetId="2" r:id="rId2"/>
     <sheet name="total" sheetId="3" r:id="rId3"/>
   </sheets>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>seed</t>
+  </si>
+  <si>
+    <t>rate</t>
+  </si>
+  <si>
+    <t>balance</t>
+  </si>
+  <si>
+    <t>profit</t>
+  </si>
+  <si>
+    <t>김규범</t>
+  </si>
+  <si>
+    <t>김정수</t>
+  </si>
+  <si>
+    <t>박성수</t>
+  </si>
+  <si>
+    <t>수수료</t>
+  </si>
+  <si>
+    <t>total</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>totalSeed</t>
+  </si>
+  <si>
+    <t>totalProfit</t>
+  </si>
+  <si>
+    <t>difference</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="1">
-    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
-  </numFmts>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -48,10 +104,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -376,135 +437,142 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>name</v>
-      </c>
-      <c r="B1" t="str">
-        <v>seed</v>
-      </c>
-      <c r="C1" t="str">
-        <v>rate</v>
-      </c>
-      <c r="D1" t="str">
-        <v>balance</v>
-      </c>
-      <c r="E1" t="str">
-        <v>profit</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>김규범</v>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="C2">
         <f>IFERROR(B2/SUM($B$2:$B$4),0)</f>
-        <v>0.3333333333333333</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <f>ROUNDDOWN(B7*C2,0)</f>
-        <v>100</v>
+        <f>B7*C2</f>
+        <v>0</v>
       </c>
       <c r="E2">
         <f>IFERROR(D2-B2, 0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>김정수</v>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>6</v>
       </c>
       <c r="B3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="C3">
         <f>IFERROR(B3/SUM($B$2:$B$4),0)</f>
-        <v>0.3333333333333333</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <f>TRUNC(B7*C3,0)</f>
-        <v>100</v>
+        <f>B7*C3</f>
+        <v>0</v>
       </c>
       <c r="E3">
         <f>IFERROR(D3-B3, 0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>박성수</v>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="C4">
         <f>IFERROR(B4/SUM($B$2:$B$4),0)</f>
-        <v>0.3333333333333333</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <f>TRUNC(B7*C4,0)</f>
-        <v>100</v>
+        <f>B7*C4</f>
+        <v>0</v>
       </c>
       <c r="E4">
         <f>IFERROR(D4-B4, 0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v>수수료</v>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>8</v>
       </c>
       <c r="B6">
         <v>0.25</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="str">
-        <v>total</v>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>9</v>
       </c>
       <c r="B7">
-        <v>300</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E7"/>
+    <ignoredError sqref="A1:E1 A5:E7 A2:C2 E2 A3:C3 E3 A4:C4 E4" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
+    </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>index</v>
-      </c>
-      <c r="B1" t="str">
-        <v>김규범</v>
-      </c>
-      <c r="C1" t="str">
-        <v>김정수</v>
-      </c>
-      <c r="D1" t="str">
-        <v>박성수</v>
-      </c>
-    </row>
-    <row r="2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -518,52 +586,42 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>100</v>
-      </c>
-      <c r="C7">
-        <v>100</v>
-      </c>
-      <c r="D7">
-        <v>100</v>
-      </c>
-    </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D7"/>
+    <ignoredError sqref="A1:D2 A4:D4 B3:D3" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1">
-      <c r="B1" t="str">
-        <v>totalSeed</v>
-      </c>
-      <c r="C1" t="str">
-        <v>totalProfit</v>
-      </c>
-      <c r="D1" t="str">
-        <v>difference</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>김규범</v>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -572,12 +630,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>김정수</v>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>6</v>
       </c>
       <c r="B3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -586,12 +644,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>박성수</v>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -601,9 +659,11 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D4"/>
+    <ignoredError sqref="A1:E1 A4 A2 A3" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -1,82 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <bookViews>
-    <workbookView xWindow="510" yWindow="525" windowWidth="11535" windowHeight="4950"/>
-  </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
     <sheet name="log" sheetId="2" r:id="rId2"/>
     <sheet name="total" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>seed</t>
-  </si>
-  <si>
-    <t>rate</t>
-  </si>
-  <si>
-    <t>balance</t>
-  </si>
-  <si>
-    <t>profit</t>
-  </si>
-  <si>
-    <t>김규범</t>
-  </si>
-  <si>
-    <t>김정수</t>
-  </si>
-  <si>
-    <t>박성수</t>
-  </si>
-  <si>
-    <t>수수료</t>
-  </si>
-  <si>
-    <t>total</t>
-  </si>
-  <si>
-    <t>index</t>
-  </si>
-  <si>
-    <t>totalSeed</t>
-  </si>
-  <si>
-    <t>totalProfit</t>
-  </si>
-  <si>
-    <t>difference</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
+  <numFmts count="1">
+    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
+  </numFmts>
+  <fonts count="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -104,15 +48,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -437,142 +376,135 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>5</v>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>name</v>
+      </c>
+      <c r="B1" t="str">
+        <v>seed</v>
+      </c>
+      <c r="C1" t="str">
+        <v>rate</v>
+      </c>
+      <c r="D1" t="str">
+        <v>balance</v>
+      </c>
+      <c r="E1" t="str">
+        <v>profit</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>김규범</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>233.33333333333331</v>
       </c>
       <c r="C2">
         <f>IFERROR(B2/SUM($B$2:$B$4),0)</f>
-        <v>0</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="D2">
         <f>B7*C2</f>
-        <v>0</v>
+        <v>280</v>
       </c>
       <c r="E2">
         <f>IFERROR(D2-B2, 0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>6</v>
+        <v>46.666666666666686</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>김정수</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>133.33333333333331</v>
       </c>
       <c r="C3">
         <f>IFERROR(B3/SUM($B$2:$B$4),0)</f>
-        <v>0</v>
+        <v>0.26666666666666666</v>
       </c>
       <c r="D3">
         <f>B7*C3</f>
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="E3">
         <f>IFERROR(D3-B3, 0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>7</v>
+        <v>26.666666666666686</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>박성수</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>133.33333333333331</v>
       </c>
       <c r="C4">
         <f>IFERROR(B4/SUM($B$2:$B$4),0)</f>
-        <v>0</v>
+        <v>0.26666666666666666</v>
       </c>
       <c r="D4">
         <f>B7*C4</f>
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="E4">
         <f>IFERROR(D4-B4, 0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>8</v>
+        <v>26.666666666666686</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>수수료</v>
       </c>
       <c r="B6">
         <v>0.25</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>9</v>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>total</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>600</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:E1 A5:E7 A2:C2 E2 A3:C3 E3 A4:C4 E4" numberStoredAsText="1"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:E7"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1">
+      <c r="A1" t="str">
+        <v>index</v>
+      </c>
+      <c r="B1" t="str">
+        <v>김규범</v>
+      </c>
+      <c r="C1" t="str">
+        <v>김정수</v>
+      </c>
+      <c r="D1" t="str">
+        <v>박성수</v>
+      </c>
+    </row>
+    <row r="2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -586,84 +518,120 @@
         <v>0</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>100</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>100</v>
+      </c>
+      <c r="D4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>100</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:D2 A4:D4 B3:D3" numberStoredAsText="1"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D5"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>5</v>
+    <row r="1">
+      <c r="B1" t="str">
+        <v>totalSeed</v>
+      </c>
+      <c r="C1" t="str">
+        <v>totalProfit</v>
+      </c>
+      <c r="D1" t="str">
+        <v>difference</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>김규범</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>33.333333333333314</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>6</v>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>김정수</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>33.333333333333314</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>7</v>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>박성수</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>33.333333333333314</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:E1 A4 A2 A3" numberStoredAsText="1"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D4"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -1,26 +1,82 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <bookViews>
+    <workbookView xWindow="510" yWindow="525" windowWidth="11535" windowHeight="4950"/>
+  </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
     <sheet name="log" sheetId="2" r:id="rId2"/>
     <sheet name="total" sheetId="3" r:id="rId3"/>
   </sheets>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>seed</t>
+  </si>
+  <si>
+    <t>rate</t>
+  </si>
+  <si>
+    <t>balance</t>
+  </si>
+  <si>
+    <t>profit</t>
+  </si>
+  <si>
+    <t>김규범</t>
+  </si>
+  <si>
+    <t>김정수</t>
+  </si>
+  <si>
+    <t>박성수</t>
+  </si>
+  <si>
+    <t>수수료</t>
+  </si>
+  <si>
+    <t>total</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>totalSeed</t>
+  </si>
+  <si>
+    <t>totalProfit</t>
+  </si>
+  <si>
+    <t>difference</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="1">
-    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
-  </numFmts>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -48,10 +104,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -376,135 +437,142 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>name</v>
-      </c>
-      <c r="B1" t="str">
-        <v>seed</v>
-      </c>
-      <c r="C1" t="str">
-        <v>rate</v>
-      </c>
-      <c r="D1" t="str">
-        <v>balance</v>
-      </c>
-      <c r="E1" t="str">
-        <v>profit</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>김규범</v>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>233.33333333333331</v>
+        <v>0</v>
       </c>
       <c r="C2">
         <f>IFERROR(B2/SUM($B$2:$B$4),0)</f>
-        <v>0.4666666666666667</v>
+        <v>0</v>
       </c>
       <c r="D2">
         <f>B7*C2</f>
-        <v>280</v>
+        <v>0</v>
       </c>
       <c r="E2">
         <f>IFERROR(D2-B2, 0)</f>
-        <v>46.666666666666686</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>김정수</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>6</v>
       </c>
       <c r="B3">
-        <v>133.33333333333331</v>
+        <v>0</v>
       </c>
       <c r="C3">
         <f>IFERROR(B3/SUM($B$2:$B$4),0)</f>
-        <v>0.26666666666666666</v>
+        <v>0</v>
       </c>
       <c r="D3">
         <f>B7*C3</f>
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="E3">
         <f>IFERROR(D3-B3, 0)</f>
-        <v>26.666666666666686</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>박성수</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>133.33333333333331</v>
+        <v>0</v>
       </c>
       <c r="C4">
         <f>IFERROR(B4/SUM($B$2:$B$4),0)</f>
-        <v>0.26666666666666666</v>
+        <v>0</v>
       </c>
       <c r="D4">
         <f>B7*C4</f>
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="E4">
         <f>IFERROR(D4-B4, 0)</f>
-        <v>26.666666666666686</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v>수수료</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>8</v>
       </c>
       <c r="B6">
         <v>0.25</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="str">
-        <v>total</v>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>9</v>
       </c>
       <c r="B7">
-        <v>600</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E7"/>
+    <ignoredError sqref="A1:E1 A5:E7 A2:C2 E2 A3:C3 E3 A4:C4 E4" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
+    </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>index</v>
-      </c>
-      <c r="B1" t="str">
-        <v>김규범</v>
-      </c>
-      <c r="C1" t="str">
-        <v>김정수</v>
-      </c>
-      <c r="D1" t="str">
-        <v>박성수</v>
-      </c>
-    </row>
-    <row r="2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -518,120 +586,84 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>100</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>100</v>
-      </c>
-      <c r="D4">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>100</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D5"/>
+    <ignoredError sqref="A1:D2 A4:D4 B3:D3" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1">
-      <c r="B1" t="str">
-        <v>totalSeed</v>
-      </c>
-      <c r="C1" t="str">
-        <v>totalProfit</v>
-      </c>
-      <c r="D1" t="str">
-        <v>difference</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>김규범</v>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>33.333333333333314</v>
+        <v>0</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>김정수</v>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>6</v>
       </c>
       <c r="B3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>33.333333333333314</v>
+        <v>0</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>박성수</v>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>33.333333333333314</v>
+        <v>0</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D4"/>
+    <ignoredError sqref="A1:E1 A4 A2 A3" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>